--- a/Discharge/RatingCurves/Stn2.xlsx
+++ b/Discharge/RatingCurves/Stn2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whitm\OneDrive - University of North Carolina at Chapel Hill\Ecuador2021\Ecuador2021\Discharge\RatingCurves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4886DC3D-6808-4F2A-BB45-DF2F5228C68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56231BFF-5FCA-41C6-9D7C-D68C8E5F3A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0C7BB2ED-3BEA-442C-B9C3-CE0BBEAE0415}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -90,6 +90,21 @@
       </rPr>
       <t xml:space="preserve"> - 0.0038x + 0.0271</t>
     </r>
+  </si>
+  <si>
+    <t>this is with kpa</t>
+  </si>
+  <si>
+    <t>used 10:45</t>
+  </si>
+  <si>
+    <t>Used average of 10:00 and 11:30</t>
+  </si>
+  <si>
+    <t>Stn 2</t>
+  </si>
+  <si>
+    <t>Stn 1</t>
   </si>
 </sst>
 </file>
@@ -1494,15 +1509,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E03AF0-23B7-4DFF-8B8A-94C237563B58}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -1771,7 +1787,7 @@
         <v>5.8285000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>44400</v>
       </c>
@@ -1788,7 +1804,7 @@
         <v>7.0059999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>44403</v>
       </c>
@@ -1805,7 +1821,7 @@
         <v>1.3056E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>44404</v>
       </c>
@@ -1825,9 +1841,558 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44357</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.50763888888888886</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="F26">
+        <v>2.5904999999999999E-3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44358</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27">
+        <v>8.7299999999999999E-3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="2">
+        <v>44361</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28">
+        <v>3.3600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="2">
+        <v>44365</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29">
+        <v>1.57E-3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="2">
+        <v>44372</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30">
+        <v>1.2390000000000001E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="2">
+        <v>44375</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31">
+        <v>6.1149999999999998E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44382</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32">
+        <v>1.2370000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44386</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33">
+        <v>1.5533369999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44389</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34">
+        <v>1.362E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="2">
+        <v>44390</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35">
+        <v>1.9664999999999998E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="2">
+        <v>44391</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36">
+        <v>2.2249999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="2">
+        <v>44393</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37">
+        <v>1.9400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="2">
+        <v>44396</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38">
+        <v>0.19803000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="2">
+        <v>44397</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.54722222222222217</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39">
+        <v>5.8285000000000003E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="2">
+        <v>44400</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40">
+        <v>7.0059999999999997E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="2">
+        <v>44403</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41">
+        <v>1.3056E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="2">
+        <v>44404</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42">
+        <v>1.1249E-2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="2">
+        <v>44358</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E44" s="4">
+        <v>14.5799</v>
+      </c>
+      <c r="F44">
+        <v>1.97E-3</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44361</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E45" s="4">
+        <v>15.68731</v>
+      </c>
+      <c r="F45">
+        <v>5.104E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="2">
+        <v>44365</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E46" s="4">
+        <v>14.314769999999999</v>
+      </c>
+      <c r="F46">
+        <v>3.5645E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="2">
+        <v>44372</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E47" s="4">
+        <v>16.254270000000002</v>
+      </c>
+      <c r="F47">
+        <v>5.6959999999999997E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="2">
+        <v>44375</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E48" s="4">
+        <v>15.10097</v>
+      </c>
+      <c r="F48">
+        <v>4.8265000000000001E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="2">
+        <v>44382</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="E49" s="4">
+        <v>13.93544</v>
+      </c>
+      <c r="F49">
+        <v>9.0424000000000008E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="2">
+        <v>44386</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="E50" s="4">
+        <f>AVERAGE(13.45311,13.97929)</f>
+        <v>13.716200000000001</v>
+      </c>
+      <c r="F50">
+        <v>1.3180314E-2</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="2">
+        <v>44389</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E51" s="4">
+        <v>17.391259999999999</v>
+      </c>
+      <c r="F51">
+        <v>1.6543019999999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="2">
+        <v>44390</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="E52" s="4">
+        <v>15.927960000000001</v>
+      </c>
+      <c r="F52">
+        <v>1.3445500000000001E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="2">
+        <v>44391</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E53" s="4">
+        <v>16.003419999999998</v>
+      </c>
+      <c r="F53">
+        <v>9.0229999999999998E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Discharge/RatingCurves/Stn2.xlsx
+++ b/Discharge/RatingCurves/Stn2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whitm\OneDrive - University of North Carolina at Chapel Hill\Ecuador2021\Ecuador2021\Discharge\RatingCurves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56231BFF-5FCA-41C6-9D7C-D68C8E5F3A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E0F228-8518-419C-B177-97DF8AEED869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0C7BB2ED-3BEA-442C-B9C3-CE0BBEAE0415}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -98,13 +98,25 @@
     <t>used 10:45</t>
   </si>
   <si>
-    <t>Used average of 10:00 and 11:30</t>
-  </si>
-  <si>
     <t>Stn 2</t>
   </si>
   <si>
     <t>Stn 1</t>
+  </si>
+  <si>
+    <t>used average 11:45  and 12:15 (0.1444535+ 0.1412414)/2</t>
+  </si>
+  <si>
+    <t>Discharge from station 1, but wl from stn 2</t>
+  </si>
+  <si>
+    <t>no baro data</t>
+  </si>
+  <si>
+    <t>used 11:15, also USFQ took this measurment and I had to make assumptions about river width and time</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -162,12 +174,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -615,7 +633,1074 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0025905</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$27:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.13282869999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1487771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14284744999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16689760000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1523156</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14845079999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13842699999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1973974</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18754689999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16525580000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12890280000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45050210000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3000526</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.29537210000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1903205</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1678405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$27:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>8.7299999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3600000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.57E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2390000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1149999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2370000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5533369999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.362E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9664999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9400000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19803000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.8285000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.0059999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3056E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1249E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F8CB-4AFA-A08E-FD2D2F27882C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="548860256"/>
+        <c:axId val="548868624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="548860256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="548868624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="548868624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="548860256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9317147856517931E-2"/>
+          <c:y val="0.15078754093791374"/>
+          <c:w val="0.86041907261592299"/>
+          <c:h val="0.82976991150442481"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0025905</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-EC"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$28:$E$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0.1487771</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14284744999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16689760000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1523156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14845079999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13842699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1973974</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18754689999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16525580000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12890280000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45050210000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3000526</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.29537210000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1903205</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1678405</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.5443690000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.13282869999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1465949</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.14126179999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.16248219999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.1522442</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.15153040000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.1342767</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.19753000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.18409010000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.16525580000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.128189</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.4607503</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.29793160000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.21029690000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.19083040000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.16174469999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.5443690000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$28:$F$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>3.3600000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.57E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2390000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1149999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2370000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5533369999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.362E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9664999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9400000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19803000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.8285000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.0059999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3056E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1249E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.3900000000000007E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.4454999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.1500000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.97E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.104E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5645E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.6959999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.8265000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.0424000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3180314E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.6543019999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.3445500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.0229999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.6430000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.19495999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.10002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.4860000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.2999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.2427000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.222E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C3AC-49B3-9F0B-794BC6C4EC4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="148737920"/>
+        <c:axId val="148735008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="148737920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="148735008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="148735008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="148737920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1171,6 +2256,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1204,6 +3321,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>403225</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C47403F3-B8FF-425A-940C-86CAFB87F188}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>117475</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>422275</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96FB7396-B796-4B06-B09C-D23991D8DC42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1509,10 +3698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E03AF0-23B7-4DFF-8B8A-94C237563B58}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1873,7 +4062,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" s="2">
         <v>44357</v>
@@ -1893,7 +4082,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="2">
         <v>44358</v>
@@ -1904,7 +4093,9 @@
       <c r="D27" s="3">
         <v>0.4375</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="4">
+        <v>0.13282869999999999</v>
+      </c>
       <c r="F27">
         <v>8.7299999999999999E-3</v>
       </c>
@@ -1914,7 +4105,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" s="2">
         <v>44361</v>
@@ -1925,14 +4116,16 @@
       <c r="D28" s="3">
         <v>0.44791666666666669</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="4">
+        <v>0.1487771</v>
+      </c>
       <c r="F28">
         <v>3.3600000000000001E-3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" s="2">
         <v>44365</v>
@@ -1943,17 +4136,20 @@
       <c r="D29" s="3">
         <v>0.5</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="E29" s="4">
+        <f>(0.1444535+ 0.1412414)/2</f>
+        <v>0.14284744999999999</v>
+      </c>
       <c r="F29">
         <v>1.57E-3</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30" s="2">
         <v>44372</v>
@@ -1964,14 +4160,16 @@
       <c r="D30" s="3">
         <v>0.5</v>
       </c>
-      <c r="E30" s="4"/>
+      <c r="E30" s="4">
+        <v>0.16689760000000001</v>
+      </c>
       <c r="F30">
         <v>1.2390000000000001E-3</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" s="2">
         <v>44375</v>
@@ -1982,14 +4180,16 @@
       <c r="D31" s="3">
         <v>0.5</v>
       </c>
-      <c r="E31" s="4"/>
+      <c r="E31" s="4">
+        <v>0.1523156</v>
+      </c>
       <c r="F31">
         <v>6.1149999999999998E-3</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32" s="2">
         <v>44382</v>
@@ -2000,14 +4200,16 @@
       <c r="D32" s="3">
         <v>0.44791666666666669</v>
       </c>
-      <c r="E32" s="4"/>
+      <c r="E32" s="4">
+        <v>0.14845079999999999</v>
+      </c>
       <c r="F32">
         <v>1.2370000000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33" s="2">
         <v>44386</v>
@@ -2018,14 +4220,16 @@
       <c r="D33" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E33" s="4"/>
+      <c r="E33" s="4">
+        <v>0.13842699999999999</v>
+      </c>
       <c r="F33">
         <v>1.5533369999999999E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34" s="2">
         <v>44389</v>
@@ -2036,14 +4240,16 @@
       <c r="D34" s="3">
         <v>0.59375</v>
       </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="4">
+        <v>0.1973974</v>
+      </c>
       <c r="F34">
         <v>1.362E-2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35" s="2">
         <v>44390</v>
@@ -2054,14 +4260,16 @@
       <c r="D35" s="3">
         <v>0.59375</v>
       </c>
-      <c r="E35" s="4"/>
+      <c r="E35" s="4">
+        <v>0.18754689999999999</v>
+      </c>
       <c r="F35">
         <v>1.9664999999999998E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36" s="2">
         <v>44391</v>
@@ -2072,14 +4280,16 @@
       <c r="D36" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E36" s="4"/>
+      <c r="E36" s="4">
+        <v>0.16525580000000001</v>
+      </c>
       <c r="F36">
         <v>2.2249999999999999E-2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" s="2">
         <v>44393</v>
@@ -2090,14 +4300,16 @@
       <c r="D37" s="3">
         <v>0.5</v>
       </c>
-      <c r="E37" s="4"/>
+      <c r="E37" s="4">
+        <v>0.12890280000000001</v>
+      </c>
       <c r="F37">
         <v>1.9400000000000001E-3</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38" s="2">
         <v>44396</v>
@@ -2108,14 +4320,16 @@
       <c r="D38" s="3">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E38" s="4"/>
+      <c r="E38" s="4">
+        <v>0.45050210000000002</v>
+      </c>
       <c r="F38">
         <v>0.19803000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39" s="2">
         <v>44397</v>
@@ -2126,14 +4340,16 @@
       <c r="D39" s="3">
         <v>0.55208333333333337</v>
       </c>
-      <c r="E39" s="4"/>
+      <c r="E39" s="4">
+        <v>0.3000526</v>
+      </c>
       <c r="F39">
         <v>5.8285000000000003E-2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40" s="2">
         <v>44400</v>
@@ -2144,14 +4360,16 @@
       <c r="D40" s="3">
         <v>0.46875</v>
       </c>
-      <c r="E40" s="4"/>
+      <c r="E40" s="4">
+        <v>0.29537210000000003</v>
+      </c>
       <c r="F40">
         <v>7.0059999999999997E-2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B41" s="2">
         <v>44403</v>
@@ -2162,14 +4380,16 @@
       <c r="D41" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E41" s="4"/>
+      <c r="E41" s="4">
+        <v>0.1903205</v>
+      </c>
       <c r="F41">
         <v>1.3056E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42" s="2">
         <v>44404</v>
@@ -2180,219 +4400,500 @@
       <c r="D42" s="3">
         <v>0.5625</v>
       </c>
-      <c r="E42" s="4"/>
+      <c r="E42" s="4">
+        <v>0.1678405</v>
+      </c>
       <c r="F42">
         <v>1.1249E-2</v>
       </c>
-      <c r="G42" t="s">
-        <v>9</v>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="2">
+        <v>44489</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="4">
+        <v>8.5443690000000003E-2</v>
+      </c>
+      <c r="F43">
+        <v>7.3900000000000007E-4</v>
+      </c>
+      <c r="G43" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="2">
-        <v>44358</v>
-      </c>
-      <c r="C44" s="3">
-        <v>0.42430555555555555</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="E44" s="4">
-        <v>14.5799</v>
-      </c>
-      <c r="F44">
-        <v>1.97E-3</v>
-      </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="2">
-        <v>44361</v>
-      </c>
-      <c r="C45" s="3">
-        <v>0.43055555555555558</v>
-      </c>
-      <c r="D45" s="3">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="E45" s="4">
-        <v>15.68731</v>
-      </c>
-      <c r="F45">
-        <v>5.104E-3</v>
-      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="2">
-        <v>44365</v>
-      </c>
-      <c r="C46" s="3">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="D46" s="3">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="E46" s="4">
-        <v>14.314769999999999</v>
-      </c>
-      <c r="F46">
-        <v>3.5645E-3</v>
-      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="2">
-        <v>44372</v>
-      </c>
-      <c r="C47" s="3">
-        <v>0.44513888888888892</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="E47" s="4">
-        <v>16.254270000000002</v>
-      </c>
-      <c r="F47">
-        <v>5.6959999999999997E-3</v>
-      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="2">
-        <v>44375</v>
-      </c>
-      <c r="C48" s="3">
-        <v>0.47569444444444442</v>
-      </c>
-      <c r="D48" s="3">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="E48" s="4">
-        <v>15.10097</v>
-      </c>
-      <c r="F48">
-        <v>4.8265000000000001E-3</v>
-      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="2">
-        <v>44382</v>
-      </c>
-      <c r="C49" s="3">
-        <v>0.4375</v>
-      </c>
-      <c r="D49" s="3">
-        <v>0.4375</v>
-      </c>
-      <c r="E49" s="4">
-        <v>13.93544</v>
-      </c>
-      <c r="F49">
-        <v>9.0424000000000008E-3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B50" s="2">
-        <v>44386</v>
+        <v>44356</v>
       </c>
       <c r="C50" s="3">
-        <v>0.44097222222222227</v>
+        <v>0.4770833333333333</v>
       </c>
       <c r="D50" s="3">
-        <v>0.4375</v>
-      </c>
-      <c r="E50" s="4">
-        <f>AVERAGE(13.45311,13.97929)</f>
-        <v>13.716200000000001</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F50">
-        <v>1.3180314E-2</v>
+        <v>4.4454999999999998E-3</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51" s="2">
-        <v>44389</v>
+        <v>44357</v>
       </c>
       <c r="C51" s="3">
-        <v>0.56597222222222221</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D51" s="3">
-        <v>0.5625</v>
-      </c>
-      <c r="E51" s="4">
-        <v>17.391259999999999</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F51">
-        <v>1.6543019999999999E-2</v>
+        <v>7.1500000000000003E-4</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B52" s="2">
-        <v>44390</v>
+        <v>44358</v>
       </c>
       <c r="C52" s="3">
-        <v>0.4375</v>
+        <v>0.42430555555555555</v>
       </c>
       <c r="D52" s="3">
-        <v>0.4375</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="E52" s="4">
-        <v>15.927960000000001</v>
+        <v>0.13282869999999999</v>
       </c>
       <c r="F52">
-        <v>1.3445500000000001E-2</v>
+        <v>1.97E-3</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B53" s="2">
+        <v>44361</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0.1465949</v>
+      </c>
+      <c r="F53">
+        <v>5.104E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="2">
+        <v>44365</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0.14126179999999999</v>
+      </c>
+      <c r="F54">
+        <v>3.5645E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="2">
+        <v>44372</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0.16248219999999999</v>
+      </c>
+      <c r="F55">
+        <v>5.6959999999999997E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="2">
+        <v>44375</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0.1522442</v>
+      </c>
+      <c r="F56">
+        <v>4.8265000000000001E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="2">
+        <v>44382</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0.15153040000000001</v>
+      </c>
+      <c r="F57">
+        <v>9.0424000000000008E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="2">
+        <v>44386</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0.1342767</v>
+      </c>
+      <c r="F58">
+        <v>1.3180314E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="2">
+        <v>44389</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0.19753000000000001</v>
+      </c>
+      <c r="F59">
+        <v>1.6543019999999999E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="2">
+        <v>44390</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0.18409010000000001</v>
+      </c>
+      <c r="F60">
+        <v>1.3445500000000001E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="2">
         <v>44391</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C61" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D61" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E53" s="4">
-        <v>16.003419999999998</v>
-      </c>
-      <c r="F53">
+      <c r="E61" s="4">
+        <v>0.16525580000000001</v>
+      </c>
+      <c r="F61">
         <v>9.0229999999999998E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="2">
+        <v>44393</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0.128189</v>
+      </c>
+      <c r="F62">
+        <v>4.6430000000000004E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="2">
+        <v>44396</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0.4607503</v>
+      </c>
+      <c r="F63">
+        <v>0.19495999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="2">
+        <v>44397</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.56458333333333333</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0.29793160000000002</v>
+      </c>
+      <c r="F64">
+        <v>0.10002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="6">
+        <v>44400</v>
+      </c>
+      <c r="C65" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D65" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E65" s="8">
+        <v>0.21029690000000001</v>
+      </c>
+      <c r="F65" s="5">
+        <v>6.4860000000000001E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="2">
+        <v>44403</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0.19083040000000001</v>
+      </c>
+      <c r="F66">
+        <v>9.2999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="2">
+        <v>44404</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0.16174469999999999</v>
+      </c>
+      <c r="F67">
+        <v>1.2427000000000001E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B68" s="2">
+        <v>44489</v>
+      </c>
+      <c r="C68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="4">
+        <v>8.5443690000000003E-2</v>
+      </c>
+      <c r="F68">
+        <v>1.222E-3</v>
+      </c>
+      <c r="G68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E70" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="F70">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E71" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="F71">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E72" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="F72">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E73" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="F73">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E74" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F74">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E75" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F75">
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
   </sheetData>

--- a/Discharge/RatingCurves/Stn2.xlsx
+++ b/Discharge/RatingCurves/Stn2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whitm\OneDrive - University of North Carolina at Chapel Hill\Ecuador2021\Ecuador2021\Discharge\RatingCurves\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Ecuador2021/Ecuador2021/Discharge/RatingCurves/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E0F228-8518-419C-B177-97DF8AEED869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{04E0F228-8518-419C-B177-97DF8AEED869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66391461-9080-3F48-A175-526C3ACFE0EB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0C7BB2ED-3BEA-442C-B9C3-CE0BBEAE0415}"/>
+    <workbookView xWindow="5840" yWindow="500" windowWidth="29100" windowHeight="16540" xr2:uid="{0C7BB2ED-3BEA-442C-B9C3-CE0BBEAE0415}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -118,12 +118,18 @@
   <si>
     <t>?</t>
   </si>
+  <si>
+    <t>Nov 9 2022</t>
+  </si>
+  <si>
+    <t>missing baro</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +159,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -174,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -182,12 +206,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -245,7 +265,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-EC"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -320,7 +340,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-EC"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -512,7 +532,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1817822175"/>
@@ -574,7 +594,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1817821759"/>
@@ -622,7 +642,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-EC"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -673,7 +693,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-EC"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -906,7 +926,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="548868624"/>
@@ -968,7 +988,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="548860256"/>
@@ -1016,7 +1036,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-EC"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1067,7 +1087,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-EC"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1163,7 +1183,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-EC"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1499,7 +1519,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="148735008"/>
@@ -1561,7 +1581,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="148737920"/>
@@ -1609,7 +1629,483 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-EC"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$81:$E$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>8.7961049999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1039095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9585859999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1220299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1074479</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1035832</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3559310000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15252969999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14267920000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1203881</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.403513E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.40563440000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.25518489999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25050440000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1454529</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1229729</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0323749999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.9310209999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.3848120000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.653689E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1052249</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.14491240899999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$81:$F$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>8.7299999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3600000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.57E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2390000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1149999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2370000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5533369999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.362E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9664999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9400000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19803000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.8285000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.0059999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3056E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1249E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.3900000000000007E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.1500000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.0600000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.213E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.6637500000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.3080000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F55B-B948-95EE-D8310ABEDBFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="907358479"/>
+        <c:axId val="485864799"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="907358479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485864799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="485864799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="907358479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1740,6 +2236,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2773,6 +3309,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3393,6 +4445,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>273539</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>127001</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>111369</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA090825-85B9-4B28-FB66-C17BFC38627B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3698,24 +4786,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E03AF0-23B7-4DFF-8B8A-94C237563B58}">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3732,7 +4820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44357</v>
       </c>
@@ -3749,7 +4837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44358</v>
       </c>
@@ -3769,7 +4857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44361</v>
       </c>
@@ -3786,7 +4874,7 @@
         <v>3.3600000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44365</v>
       </c>
@@ -3806,7 +4894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44372</v>
       </c>
@@ -3823,7 +4911,7 @@
         <v>1.2390000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44375</v>
       </c>
@@ -3840,7 +4928,7 @@
         <v>6.1149999999999998E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44382</v>
       </c>
@@ -3857,7 +4945,7 @@
         <v>1.2370000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44386</v>
       </c>
@@ -3874,7 +4962,7 @@
         <v>1.5533369999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44389</v>
       </c>
@@ -3891,7 +4979,7 @@
         <v>1.362E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44390</v>
       </c>
@@ -3908,7 +4996,7 @@
         <v>1.9664999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44391</v>
       </c>
@@ -3925,7 +5013,7 @@
         <v>2.2249999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44393</v>
       </c>
@@ -3942,7 +5030,7 @@
         <v>1.9400000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44396</v>
       </c>
@@ -3959,7 +5047,7 @@
         <v>0.19803000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44397</v>
       </c>
@@ -3976,7 +5064,7 @@
         <v>5.8285000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44400</v>
       </c>
@@ -3993,7 +5081,7 @@
         <v>7.0059999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44403</v>
       </c>
@@ -4010,7 +5098,7 @@
         <v>1.3056E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44404</v>
       </c>
@@ -4030,12 +5118,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -4043,7 +5131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>0</v>
       </c>
@@ -4060,7 +5148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -4080,7 +5168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -4103,7 +5191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -4123,7 +5211,7 @@
         <v>3.3600000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -4147,7 +5235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -4167,7 +5255,7 @@
         <v>1.2390000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -4187,7 +5275,7 @@
         <v>6.1149999999999998E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -4207,7 +5295,7 @@
         <v>1.2370000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -4227,7 +5315,7 @@
         <v>1.5533369999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -4247,7 +5335,7 @@
         <v>1.362E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -4267,7 +5355,7 @@
         <v>1.9664999999999998E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -4287,7 +5375,7 @@
         <v>2.2249999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -4307,7 +5395,7 @@
         <v>1.9400000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -4327,7 +5415,7 @@
         <v>0.19803000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -4347,7 +5435,7 @@
         <v>5.8285000000000003E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -4367,7 +5455,7 @@
         <v>7.0059999999999997E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -4387,7 +5475,7 @@
         <v>1.3056E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -4407,7 +5495,7 @@
         <v>1.1249E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -4430,42 +5518,42 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -4485,7 +5573,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -4505,7 +5593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -4528,7 +5616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -4548,7 +5636,7 @@
         <v>5.104E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -4568,7 +5656,7 @@
         <v>3.5645E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -4588,7 +5676,7 @@
         <v>5.6959999999999997E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -4608,7 +5696,7 @@
         <v>4.8265000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -4628,7 +5716,7 @@
         <v>9.0424000000000008E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -4648,7 +5736,7 @@
         <v>1.3180314E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -4668,7 +5756,7 @@
         <v>1.6543019999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -4688,7 +5776,7 @@
         <v>1.3445500000000001E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -4708,7 +5796,7 @@
         <v>9.0229999999999998E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -4728,7 +5816,7 @@
         <v>4.6430000000000004E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -4748,7 +5836,7 @@
         <v>0.19495999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -4768,27 +5856,27 @@
         <v>0.10002</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="5" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="2">
         <v>44400</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E65" s="4">
         <v>0.21029690000000001</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65">
         <v>6.4860000000000001E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -4808,7 +5896,7 @@
         <v>9.2999999999999992E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -4828,7 +5916,7 @@
         <v>1.2427000000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B68" s="2">
         <v>44489</v>
       </c>
@@ -4848,7 +5936,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E70" s="4">
         <v>0.06</v>
       </c>
@@ -4856,7 +5944,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E71" s="4">
         <v>0.06</v>
       </c>
@@ -4864,7 +5952,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E72" s="4">
         <v>0.06</v>
       </c>
@@ -4872,7 +5960,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E73" s="4">
         <v>0.06</v>
       </c>
@@ -4880,7 +5968,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E74" s="4">
         <v>0.05</v>
       </c>
@@ -4888,7 +5976,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E75" s="4">
         <v>0.05</v>
       </c>
@@ -4896,7 +5984,515 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s">
+        <v>3</v>
+      </c>
+      <c r="F79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="2">
+        <v>44357</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0.50763888888888886</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="F80">
+        <v>2.5904999999999999E-3</v>
+      </c>
+      <c r="G80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="2">
+        <v>44358</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E81" s="5">
+        <v>8.7961049999999999E-2</v>
+      </c>
+      <c r="F81">
+        <v>8.7299999999999999E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="2">
+        <v>44361</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E82" s="5">
+        <v>0.1039095</v>
+      </c>
+      <c r="F82">
+        <v>3.3600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="2">
+        <v>44365</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E83" s="6">
+        <v>9.9585859999999998E-2</v>
+      </c>
+      <c r="F83">
+        <v>1.57E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="2">
+        <v>44372</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E84" s="5">
+        <v>0.1220299</v>
+      </c>
+      <c r="F84">
+        <v>1.2390000000000001E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="2">
+        <v>44375</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E85" s="5">
+        <v>0.1074479</v>
+      </c>
+      <c r="F85">
+        <v>6.1149999999999998E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="2">
+        <v>44382</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E86" s="5">
+        <v>0.1035832</v>
+      </c>
+      <c r="F86">
+        <v>1.2370000000000001E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="2">
+        <v>44386</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E87" s="5">
+        <v>9.3559310000000007E-2</v>
+      </c>
+      <c r="F87">
+        <v>1.5533369999999999E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" s="2">
+        <v>44389</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="E88" s="5">
+        <v>0.15252969999999999</v>
+      </c>
+      <c r="F88">
+        <v>1.362E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" s="2">
+        <v>44390</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="E89" s="5">
+        <v>0.14267920000000001</v>
+      </c>
+      <c r="F89">
+        <v>1.9664999999999998E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" s="2">
+        <v>44391</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E90" s="5">
+        <v>0.1203881</v>
+      </c>
+      <c r="F90">
+        <v>2.2249999999999999E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" s="2">
+        <v>44393</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D91" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E91" s="5">
+        <v>8.403513E-2</v>
+      </c>
+      <c r="F91">
+        <v>1.9400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" s="2">
+        <v>44396</v>
+      </c>
+      <c r="C92" s="3">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="D92" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E92" s="5">
+        <v>0.40563440000000001</v>
+      </c>
+      <c r="F92">
+        <v>0.19803000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="2">
+        <v>44397</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0.54722222222222217</v>
+      </c>
+      <c r="D93" s="3">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E93" s="5">
+        <v>0.25518489999999999</v>
+      </c>
+      <c r="F93">
+        <v>5.8285000000000003E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="2">
+        <v>44400</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="E94" s="5">
+        <v>0.25050440000000002</v>
+      </c>
+      <c r="F94">
+        <v>7.0059999999999997E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" s="2">
+        <v>44403</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D95" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E95" s="5">
+        <v>0.1454529</v>
+      </c>
+      <c r="F95">
+        <v>1.3056E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" s="2">
+        <v>44404</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E96" s="5">
+        <v>0.1229729</v>
+      </c>
+      <c r="F96">
+        <v>1.1249E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B97" s="2"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="5"/>
+    </row>
+    <row r="98" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" s="2">
+        <v>44489</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D98" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E98" s="5">
+        <v>4.0323749999999998E-2</v>
+      </c>
+      <c r="F98">
+        <v>7.3900000000000007E-4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" s="2">
+        <v>44714</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D100" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E100" s="5">
+        <v>3.9310209999999998E-2</v>
+      </c>
+      <c r="F100">
+        <v>4.1500000000000009E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" s="2">
+        <v>44719</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="D101" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="E101" s="5">
+        <v>7.3848120000000003E-2</v>
+      </c>
+      <c r="F101">
+        <v>6.0600000000000011E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" s="2">
+        <v>44742</v>
+      </c>
+      <c r="C102" s="3">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="D102" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E102" s="5">
+        <v>9.653689E-2</v>
+      </c>
+      <c r="F102">
+        <v>1.213E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" s="2">
+        <v>44764</v>
+      </c>
+      <c r="C103" s="3">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="D103" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E103" s="5">
+        <v>0.1052249</v>
+      </c>
+      <c r="F103">
+        <v>2.6637500000000008E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="2">
+        <v>44769</v>
+      </c>
+      <c r="C104" s="3">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D104" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E104" s="6">
+        <v>0.14491240899999999</v>
+      </c>
+      <c r="F104">
+        <v>7.3080000000000011E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="E106" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="E107" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
